--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Edn3-Ednra.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Edn3-Ednra.xlsx
@@ -540,10 +540,10 @@
         <v>1.068021</v>
       </c>
       <c r="I2">
-        <v>0.08840121110588732</v>
+        <v>0.08840121110588733</v>
       </c>
       <c r="J2">
-        <v>0.08840121110588733</v>
+        <v>0.08840121110588735</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.508394</v>
+        <v>2.067959333333333</v>
       </c>
       <c r="N2">
-        <v>4.525182</v>
+        <v>6.203878</v>
       </c>
       <c r="O2">
-        <v>0.0276475339394655</v>
+        <v>0.03751906553627715</v>
       </c>
       <c r="P2">
-        <v>0.02764753393946551</v>
+        <v>0.03751906553627715</v>
       </c>
       <c r="Q2">
-        <v>0.5369988227579999</v>
+        <v>0.7362079983819999</v>
       </c>
       <c r="R2">
-        <v>4.832989404821999</v>
+        <v>6.625871985438001</v>
       </c>
       <c r="S2">
-        <v>0.002444075484339875</v>
+        <v>0.003316730832968059</v>
       </c>
       <c r="T2">
-        <v>0.002444075484339875</v>
+        <v>0.003316730832968059</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>1.068021</v>
       </c>
       <c r="I3">
-        <v>0.08840121110588732</v>
+        <v>0.08840121110588733</v>
       </c>
       <c r="J3">
-        <v>0.08840121110588733</v>
+        <v>0.08840121110588735</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>26.884056</v>
       </c>
       <c r="O3">
-        <v>0.1642536920482958</v>
+        <v>0.1625861532004571</v>
       </c>
       <c r="P3">
-        <v>0.1642536920482958</v>
+        <v>0.1625861532004571</v>
       </c>
       <c r="Q3">
         <v>3.190304041464</v>
       </c>
       <c r="R3">
-        <v>28.71273637317599</v>
+        <v>28.712736373176</v>
       </c>
       <c r="S3">
-        <v>0.0145202253056828</v>
+        <v>0.01437281285196775</v>
       </c>
       <c r="T3">
-        <v>0.0145202253056828</v>
+        <v>0.01437281285196775</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>1.068021</v>
       </c>
       <c r="I4">
-        <v>0.08840121110588732</v>
+        <v>0.08840121110588733</v>
       </c>
       <c r="J4">
-        <v>0.08840121110588733</v>
+        <v>0.08840121110588735</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,10 +682,10 @@
         <v>132.264745</v>
       </c>
       <c r="O4">
-        <v>0.8080987740122387</v>
+        <v>0.7998947812632657</v>
       </c>
       <c r="P4">
-        <v>0.8080987740122387</v>
+        <v>0.7998947812632657</v>
       </c>
       <c r="Q4">
         <v>15.695725024405</v>
@@ -694,10 +694,10 @@
         <v>141.261525219645</v>
       </c>
       <c r="S4">
-        <v>0.07143691031586465</v>
+        <v>0.07071166742095153</v>
       </c>
       <c r="T4">
-        <v>0.07143691031586466</v>
+        <v>0.07071166742095154</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.508394</v>
+        <v>2.067959333333333</v>
       </c>
       <c r="N5">
-        <v>4.525182</v>
+        <v>6.203878</v>
       </c>
       <c r="O5">
-        <v>0.0276475339394655</v>
+        <v>0.03751906553627715</v>
       </c>
       <c r="P5">
-        <v>0.02764753393946551</v>
+        <v>0.03751906553627715</v>
       </c>
       <c r="Q5">
-        <v>5.537565270202</v>
+        <v>7.591822683235777</v>
       </c>
       <c r="R5">
-        <v>49.838087431818</v>
+        <v>68.326404149122</v>
       </c>
       <c r="S5">
-        <v>0.02520345845512563</v>
+        <v>0.03420233470330909</v>
       </c>
       <c r="T5">
-        <v>0.02520345845512563</v>
+        <v>0.03420233470330909</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -806,10 +806,10 @@
         <v>26.884056</v>
       </c>
       <c r="O6">
-        <v>0.1642536920482958</v>
+        <v>0.1625861532004571</v>
       </c>
       <c r="P6">
-        <v>0.1642536920482958</v>
+        <v>0.1625861532004571</v>
       </c>
       <c r="Q6">
         <v>32.89861376354933</v>
@@ -818,10 +818,10 @@
         <v>296.087523871944</v>
       </c>
       <c r="S6">
-        <v>0.149733466742613</v>
+        <v>0.1482133403484893</v>
       </c>
       <c r="T6">
-        <v>0.149733466742613</v>
+        <v>0.1482133403484893</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -868,10 +868,10 @@
         <v>132.264745</v>
       </c>
       <c r="O7">
-        <v>0.8080987740122387</v>
+        <v>0.7998947812632657</v>
       </c>
       <c r="P7">
-        <v>0.8080987740122387</v>
+        <v>0.7998947812632657</v>
       </c>
       <c r="Q7">
         <v>161.8552929769728</v>
@@ -880,10 +880,10 @@
         <v>1456.697636792755</v>
       </c>
       <c r="S7">
-        <v>0.736661863696374</v>
+        <v>0.7291831138423142</v>
       </c>
       <c r="T7">
-        <v>0.7366618636963741</v>
+        <v>0.7291831138423143</v>
       </c>
     </row>
   </sheetData>
